--- a/Configurations/CM_1.1.2_21032019.xlsx
+++ b/Configurations/CM_1.1.2_21032019.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ming Yu\Documents\SMU\IS214\esm214\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A143A874-6604-408A-AC74-66F1839988D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE67F5D-79C6-46A3-80C3-CA06CDCBE646}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2BB56906-853E-4336-8E30-9BAFB26AF772}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCP 1.0.7" sheetId="1" r:id="rId1"/>
+    <sheet name="SCP 1.1.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Date Deployed: 18/2/2019</t>
   </si>
@@ -740,7 +740,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
